--- a/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -289,13 +289,13 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T14:48:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f17a52cc1f41dbaab06ea7aa380099ee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.2d9d1e1cb993a5ee9fdb693d95281b2e7a9a1782cd4943921fb6e364c984ef82.6f581e8737^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-01T11:03:03Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4cc289b3fb2ae7ee41d6e769ba9dfcf9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.ab52f709d42185722cf5bc88f736a97566a8cce97abad2fec8d91d5b928ef3ce.04291dd230^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -312,13 +312,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T14:52:21Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8fbe83e9283cb1064e36321294f2e904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.ea2cb81792fff9badc3ae9cd39d33e4d1587752d36115bbdeba237d798931a22.5bbc49c8fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-01T11:08:56Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28cb5f4b6dcef3c48f737cb1e22917c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.eafd82037364042d6cf61cf7ffe7e9092479d2db5649a6ed64e6fd145088d94d.4f70732b99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT3</t>
@@ -729,13 +729,13 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T15:03:27Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b29a3e8b044129c608d3f8f06e28a67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.d0997b2872be3beb3013bfecd5780c97847390739ce1fe6b584b9d9ec2e67d20.47d776b6d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-01T11:14:34Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c60caa2392ca927d9af21c6be6693619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.0ee933436c32eb3a041f2b388addeb1b62dfd53a9b4263585afb1f1a08fb3100.3b3424d27e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT25_KO</t>
@@ -1531,7 +1531,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1618,7 +1618,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2692,14 +2692,14 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -2998,7 +2998,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="31" t="n">
-        <v>45982</v>
+        <v>45992</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>50</v>
@@ -3045,7 +3045,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="31" t="n">
-        <v>45982</v>
+        <v>45992</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>57</v>
@@ -3878,7 +3878,7 @@
         <v>135</v>
       </c>
       <c r="F26" s="31" t="n">
-        <v>45982</v>
+        <v>45992</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>136</v>
@@ -8068,7 +8068,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8134,7 +8134,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
@@ -9282,7 +9282,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$G$10</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Summary!$A$1:$G$11</definedName>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">TestCases!$A$9:$W$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="197">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -289,13 +289,13 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-12-01T11:03:03Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4cc289b3fb2ae7ee41d6e769ba9dfcf9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.ab52f709d42185722cf5bc88f736a97566a8cce97abad2fec8d91d5b928ef3ce.04291dd230^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T09:25:57Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b75013b9ad64f26a9bfad7f6531d1f8c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.436b0c4f02a9239ac5627bce91ccfde2644308db6b7c03917e3f0b579cdd9a49.232ff336e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">SI</t>
@@ -312,13 +312,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2025-12-01T11:08:56Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28cb5f4b6dcef3c48f737cb1e22917c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.eafd82037364042d6cf61cf7ffe7e9092479d2db5649a6ed64e6fd145088d94d.4f70732b99^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T09:39:33Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb7f48de1eacb46337d265ff757bd66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.4757652d2cc8d853af75b586fee1d9a796187e9d077f58a4c688c40d856bae05.6d3a2a6a1d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT3</t>
@@ -560,13 +560,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T15:08:52Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68a4218f3935321a38e10bc672a74ff0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.a85d08522c49327a8251b88caaabc0c730e22803c95d17b3b2b67d17d80e8a45.a8b3ae4280^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T10:37:20Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d25eaf35dff38ff91cd6c0eb3722786d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.ab674f8e513331a87067d26073c50337205f5b6a3db25aee59eefeaf7a2237bf.ec02c5a18c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.1 v2.80, Codes: 24419-4B]</t>
@@ -582,13 +582,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T15:21:12Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bac6d5adcf6c0e85f3212baded7e6ac7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.81987364f353f0a85ce308409007d9406e48f0a591de5d9d4080fda7593072f7.22a8b87774^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T10:42:29Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">501e40b0b943b88526316007f2bce3ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.28578203b2ef93eac46f8e4832642d7b806410c9ec24fd7279ae28297b9349a4.c7cb23ac35^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.77.22.11.7, Codes: LA18632-2B]</t>
@@ -601,13 +601,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T15:31:04Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05728fc208bdb4ecc2f1be1fed96935a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.213cdcaa3e544dcebac9379ddb44c61d5004dd2af124f58c534d6a2ed4fb3340.27871fa62e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T10:46:33Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d15ee91f2cbbf827ffa76adb92e5550b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.2467e54e343925efdbe07e3af8f32f5a422658555a7726108e43de9f2405d5f1.097d501505^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">[ERRORE-24| L'elemento ClinicalDocument DEVE contenere almeno un elemento 'inFulfillmentOf'.]</t>
@@ -620,13 +620,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T15:38:04Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8eb221a2243506e649246ad1d1ea6ccf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.b6199cc7cb6ec72a97c34667854a499fa736214fa1ebd65f02fa11ce4723f672.e0fae81812^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T10:51:13Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35f2a65f397b3bce5974fdb164c1d5e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.26006d188285fe8cb556550ed20bc7d84c34a36fa4133f256c75dfd8f49918f1.0858452d62^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":effectiveTime}'. One of '{\"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.</t>
@@ -639,13 +639,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T15:52:55Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e421842c928b651449ace9acbecabd48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.dc893aedfbf76470814e39711f95222dba21af3c0c72fe7b210b392f50ce0cf7.c21200cdb6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T10:56:29Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cf6df1672b6e2a0d1b39cb695d5740dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.7dadb92e8772903f6df13c2b59b8146bd029ceb705e3050b75355ccc3dd6885d.0b8b5b5c56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">[ERRORE-b28| Sezione Epicrisi: La sezione DEVE contenere l'elemento text obbligatorio.]</t>
@@ -658,13 +658,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T16:00:38Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9fe178572a6164346035019fcbf92c92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.5d4e29fb90af3f3d1cf32ae6e8b225916660f2a66d434589104cfd6e682c531d.f6869b081d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T11:06:53Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1b3ec90027de0fb9c6336e37c15c514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.a03449fac5fa752d2212f5893b2f595a21a751f0512ee31f1fa2fbda38880289.2322ce6b33^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">[ERRORE-b195| Sezione Diagnosi: L'elemento entry/organizer/component/observation (Linfonodi) deve avere l'elemento value con @xsi:type='IVL_PQ', che identifica il numero dei linfonodi.]</t>
@@ -677,6 +677,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-12-12T11:21:17Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4d4a3657b00393dfac17e4cb3c368cc6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.4dd3e6b268321ddeadcf14d1e9c5bcc37e4fb811365abd02f5fd203c3f970a04.91eb481d5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ERRORE-b69| Sotto-sezione Anamnesi (entry Anamnesi familiare): L'elemento entry/organizer/subject/relatedSubject deve contenere l'elemento code.]</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT21_KO</t>
   </si>
   <si>
@@ -684,13 +696,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T16:07:20Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d9eb30d67494b108e06a7c33b17b9a2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.73a1fb71f5e3b1d3a45a4065fe8816617a7838b60fc01ca6b84ff4ccc09fa34d.bdbbeae32e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T11:33:05Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b6b987c0864b5fd58b49f7d2556528c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.5910505277b0b28cbe734287e975d355020ad978a486478160ff930a31de329c.a70322463f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">[ERRORE-b98| Sotto-sezione Allergie: l'elemento entry/act/effectiveTime è obbligatorio.]</t>
@@ -703,6 +715,18 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-12-12T11:44:18Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c98691c199bf4b0d5c9e6df1c90817c0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.bc86ce2789e6ca4cb275383f0f9cf7fb0c9142161a008ab67775860ddbbbf1fc.c1c30dfb75^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 575.6B]</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT23_KO</t>
   </si>
   <si>
@@ -710,13 +734,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T16:14:54Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97590f48daae6c0b1c598445f2f0a819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.258e80d7a65ce1c7e6b8bcd6d5bf5a39281402338c0c0a9a28cf33c4bd46a00f.081b9f98a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T11:53:39Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02e960d55695fe662cbeb9af70a63e48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.f0b449eaaad08e95463ac573d9fb6ff3e85677385f19f480d4de2b011fd318c4.4c710e181b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">[ERRORE-b167| Sezione Procedura: l'elemento entry/procedure deve contenere una entryRelationship di tipo supply con l'attributo @moodCode='EVN' che specifica l’identificativo del contenitore del campione utilizzato.],[ERRORE-b168| Sezione Procedura: l'elemento entry/procedure/entryRelationship/supply deve contenere l'elemento templateId con l' attributo @root valorizzato con '2.16.840.1.113883.3.1937.777.63.10.251'.],[ERRORE-b169| Sezione Procedura: l'elemento entry/procedure/entryRelationship/supply deve contenere l'elemento id.],[ERRORE-b170| Sezione Procedura: l'elemento entry/procedure/entryRelationship/supply/code deve avere l'attributo @code e @codeSystem valorizzati con '74384-9'e '2.16.840.1.113883.6.1'.],[ERRORE-b171| Sezione Procedura: l'elemento entry/procedure/entryRelationship/supply/statusCode deve avere l'attributo @code 'completed'.]</t>
@@ -729,13 +753,13 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-12-01T11:14:34Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c60caa2392ca927d9af21c6be6693619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.0ee933436c32eb3a041f2b388addeb1b62dfd53a9b4263585afb1f1a08fb3100.3b3424d27e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T09:47:09Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3f2c161f0b6d5d789601c2837e720e9c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"2.16.840.1.113883.2.9.2.10.4.4.0fc9416fd0ee8f65214fc143063144a22347575bce629f26d89e322efe1a66b4.6106a072dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT25_KO</t>
@@ -745,13 +769,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-11-21T16:24:58Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90c8761db1c95c8218a1a2e3c61c1e8c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.06f0d8b78344462414b8b5b7461072f69b45e15f70b7de54ee70824f4b35d8d2.1a38c16f5b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-12T11:58:01Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c8724a48d306f6dcb6719d9879200aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.457bd080386a6e24d88e4b0a272fba596332da0a249da341f77f308509ad6277.ecbd3d04c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element '{\"urn:hl7-org:v3\":languageCode}'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
@@ -893,11 +917,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -1352,8 +1375,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1528,10 +1551,10 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1618,7 +1641,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2692,14 +2715,14 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J26" activeCellId="0" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -2998,7 +3021,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="31" t="n">
-        <v>45992</v>
+        <v>46003</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>50</v>
@@ -3045,7 +3068,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="31" t="n">
-        <v>45992</v>
+        <v>46003</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>57</v>
@@ -3308,7 +3331,7 @@
         <v>82</v>
       </c>
       <c r="F16" s="31" t="n">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>83</v>
@@ -3369,7 +3392,7 @@
         <v>89</v>
       </c>
       <c r="F17" s="31" t="n">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>90</v>
@@ -3430,7 +3453,7 @@
         <v>95</v>
       </c>
       <c r="F18" s="31" t="n">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>96</v>
@@ -3491,7 +3514,7 @@
         <v>101</v>
       </c>
       <c r="F19" s="31" t="n">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>102</v>
@@ -3552,7 +3575,7 @@
         <v>107</v>
       </c>
       <c r="F20" s="31" t="n">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>108</v>
@@ -3613,7 +3636,7 @@
         <v>113</v>
       </c>
       <c r="F21" s="31" t="n">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>114</v>
@@ -3673,24 +3696,44 @@
       <c r="E22" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
+      <c r="F22" s="31" t="n">
+        <v>46003</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>122</v>
+      </c>
       <c r="J22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="38"/>
+      <c r="N22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="S22" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="T22" s="33"/>
       <c r="U22" s="34"/>
       <c r="V22" s="35"/>
@@ -3709,22 +3752,22 @@
         <v>47</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F23" s="31" t="n">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="G23" s="31" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J23" s="33" t="s">
         <v>53</v>
@@ -3738,7 +3781,7 @@
         <v>53</v>
       </c>
       <c r="O23" s="33" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P23" s="33" t="s">
         <v>53</v>
@@ -3770,29 +3813,49 @@
         <v>47</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="32"/>
+        <v>131</v>
+      </c>
+      <c r="F24" s="31" t="n">
+        <v>46003</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>134</v>
+      </c>
       <c r="J24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="38"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="38"/>
+      <c r="N24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24" s="39" t="s">
+        <v>87</v>
+      </c>
       <c r="T24" s="33"/>
       <c r="U24" s="34"/>
       <c r="V24" s="35"/>
@@ -3811,22 +3874,22 @@
         <v>47</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F25" s="31" t="n">
-        <v>45982</v>
+        <v>46003</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J25" s="33" t="s">
         <v>53</v>
@@ -3840,7 +3903,7 @@
         <v>53</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="P25" s="33" t="s">
         <v>53</v>
@@ -3872,22 +3935,22 @@
         <v>47</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F26" s="31" t="n">
-        <v>45992</v>
+        <v>46003</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>138</v>
+        <v>145</v>
+      </c>
+      <c r="I26" s="41" t="s">
+        <v>146</v>
       </c>
       <c r="J26" s="33" t="s">
         <v>53</v>
@@ -3919,22 +3982,22 @@
         <v>47</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27" s="41" t="n">
-        <v>45982</v>
+        <v>148</v>
+      </c>
+      <c r="F27" s="31" t="n">
+        <v>46003</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J27" s="33" t="s">
         <v>53</v>
@@ -3948,7 +4011,7 @@
         <v>53</v>
       </c>
       <c r="O27" s="33" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P27" s="33" t="s">
         <v>53</v>
@@ -8068,11 +8131,11 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8082,32 +8145,32 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -8134,7 +8197,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
@@ -8147,148 +8210,148 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="44" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="44" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="44" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D6" s="47" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="44" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="44" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="44" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8296,13 +8359,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9259,7 +9322,7 @@
     <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:G10"/>
+  <autoFilter ref="A1:G11"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -9282,7 +9345,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -9299,7 +9362,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>53</v>
@@ -9307,7 +9370,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="50" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>62</v>

--- a/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -753,13 +753,13 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-12-12T09:47:09Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3f2c161f0b6d5d789601c2837e720e9c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"2.16.840.1.113883.2.9.2.10.4.4.0fc9416fd0ee8f65214fc143063144a22347575bce629f26d89e322efe1a66b4.6106a072dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-17T09:39:36Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5583c2b1a95b4e09f63919216315ff9b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.ed668bf23df6d9ba569fc7d6275eafd5567044d5d059d89a1f9512c8fdfcf4a6.b888bb23b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT25_KO</t>
@@ -1554,7 +1554,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1641,7 +1641,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2715,14 +2715,14 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="I35" activeCellId="0" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -3941,7 +3941,7 @@
         <v>143</v>
       </c>
       <c r="F26" s="31" t="n">
-        <v>46003</v>
+        <v>46008</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>144</v>
@@ -8131,7 +8131,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8197,7 +8197,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
@@ -9345,7 +9345,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -753,13 +753,13 @@
 Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">2025-12-17T09:39:36Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5583c2b1a95b4e09f63919216315ff9b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.ed668bf23df6d9ba569fc7d6275eafd5567044d5d059d89a1f9512c8fdfcf4a6.b888bb23b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2025-12-18T15:43:52Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32b2dd5eb586fa00395fb48d7a226ac9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.10.4.4.cda8fff854080ac80e7f47f9f620ef8769fc1ce804ff884436d85a6d5afe07f9.6b6a52a02f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT25_KO</t>
@@ -1554,7 +1554,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1641,7 +1641,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2719,10 +2719,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="I35" activeCellId="0" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -3941,7 +3941,7 @@
         <v>143</v>
       </c>
       <c r="F26" s="31" t="n">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>144</v>
@@ -8131,7 +8131,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8197,7 +8197,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
@@ -9345,7 +9345,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -1550,11 +1550,11 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1637,11 +1637,11 @@
   </sheetPr>
   <dimension ref="A1:B996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2714,15 +2714,15 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="I26" activeCellId="0" sqref="I26"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -3188,7 +3188,7 @@
         <v>62</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S13" s="38" t="s">
         <v>70</v>
@@ -3249,7 +3249,7 @@
         <v>62</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S14" s="38" t="s">
         <v>70</v>
@@ -3302,7 +3302,7 @@
         <v>62</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S15" s="38" t="s">
         <v>80</v>
@@ -3363,7 +3363,7 @@
         <v>62</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S16" s="39" t="s">
         <v>87</v>
@@ -3424,7 +3424,7 @@
         <v>62</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S17" s="39" t="s">
         <v>87</v>
@@ -3485,7 +3485,7 @@
         <v>62</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S18" s="39" t="s">
         <v>87</v>
@@ -3546,7 +3546,7 @@
         <v>62</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S19" s="39" t="s">
         <v>87</v>
@@ -3607,7 +3607,7 @@
         <v>62</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S20" s="39" t="s">
         <v>87</v>
@@ -3668,7 +3668,7 @@
         <v>62</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S21" s="39" t="s">
         <v>87</v>
@@ -3729,7 +3729,7 @@
         <v>62</v>
       </c>
       <c r="R22" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S22" s="39" t="s">
         <v>87</v>
@@ -3790,7 +3790,7 @@
         <v>62</v>
       </c>
       <c r="R23" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S23" s="39" t="s">
         <v>87</v>
@@ -3851,7 +3851,7 @@
         <v>62</v>
       </c>
       <c r="R24" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S24" s="39" t="s">
         <v>87</v>
@@ -3912,7 +3912,7 @@
         <v>62</v>
       </c>
       <c r="R25" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S25" s="39" t="s">
         <v>87</v>
@@ -8127,11 +8127,11 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8191,13 +8191,13 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
@@ -9341,11 +9341,11 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
+++ b/GATEWAY/A1#111MULTIMEDIAS/MultimediaSrl/MedicaRAP/3.3.0.0/accreditamento-checklist_V8.2.6.1.xlsx
@@ -1554,7 +1554,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1641,7 +1641,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2715,14 +2715,14 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="R33" activeCellId="0" sqref="R33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -4020,7 +4020,7 @@
         <v>62</v>
       </c>
       <c r="R27" s="33" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S27" s="39" t="s">
         <v>87</v>
@@ -8131,7 +8131,7 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8197,7 +8197,7 @@
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
@@ -9345,7 +9345,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
